--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.012120-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.012120-1.xlsx_with_dialog_acts.xlsx
@@ -2571,12 +2571,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3747,12 +3747,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4041,12 +4041,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5007,12 +5007,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7279,12 +7279,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7699,12 +7699,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8123,12 +8123,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8795,12 +8795,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8921,12 +8921,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9173,12 +9173,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10013,12 +10013,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10727,12 +10727,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10937,12 +10937,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11105,12 +11105,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11735,12 +11735,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11819,12 +11819,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12117,12 +12117,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12541,12 +12541,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12583,12 +12583,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
